--- a/Art Study/Study of art.xlsx
+++ b/Art Study/Study of art.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mayte\OneDrive\Documentos\Documentos\Proyectos digitales\Heating-Systems-Peru\Art Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{552F1A66-51A0-4A36-9744-F14D68690A26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{794AF95B-F4D0-428F-90BC-6E9CE5E3F770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -157,7 +157,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,12 +172,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -215,10 +209,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -516,7 +516,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -524,8 +524,8 @@
     <col min="1" max="1" width="14.88671875" customWidth="1"/>
     <col min="2" max="2" width="37.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.21875" customWidth="1"/>
+    <col min="6" max="6" width="24.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="71.33203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -537,7 +537,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -561,7 +561,7 @@
       <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -585,7 +585,7 @@
       <c r="B3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -609,7 +609,7 @@
       <c r="B4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="3">
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -633,7 +633,7 @@
       <c r="B5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="3">
         <v>3</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -657,7 +657,7 @@
       <c r="B6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="3">
         <v>3</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -681,7 +681,7 @@
       <c r="B7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="3">
         <v>3</v>
       </c>
       <c r="D7" s="2" t="s">
